--- a/src/test/java/TestData/hotel.xlsx
+++ b/src/test/java/TestData/hotel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Cengiz\IdeaProjects\Hotel_Project_WithTestNG\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28274DCF-7CD0-4B3A-9DE0-596A962A08C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F677E-543F-4421-9F88-F8A861773F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="US_05" sheetId="9" state="hidden" r:id="rId8"/>
     <sheet name="US_06" sheetId="10" state="hidden" r:id="rId9"/>
     <sheet name="US_07" sheetId="11" state="hidden" r:id="rId10"/>
-    <sheet name="US_08" sheetId="12" r:id="rId11"/>
-    <sheet name="US_09" sheetId="13" r:id="rId12"/>
+    <sheet name="US_08" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="US_09" sheetId="13" state="hidden" r:id="rId12"/>
     <sheet name="US_10" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -6462,7 +6462,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -37525,8 +37525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15"/>
@@ -39280,13 +39280,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" thickBot="1">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1">
       <c r="A1" s="88" t="s">
         <v>263</v>
       </c>
@@ -39315,7 +39326,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135.75" thickBot="1">
+    <row r="2" spans="1:9" ht="45.75" thickBot="1">
       <c r="A2" s="556" t="s">
         <v>77</v>
       </c>
@@ -39344,7 +39355,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75.75" thickBot="1">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="557"/>
       <c r="B3" s="560"/>
       <c r="C3" s="563"/>
@@ -39357,7 +39368,7 @@
       <c r="H3" s="560"/>
       <c r="I3" s="569"/>
     </row>
-    <row r="4" spans="1:9" ht="120.75" thickBot="1">
+    <row r="4" spans="1:9" ht="30.75" thickBot="1">
       <c r="A4" s="557"/>
       <c r="B4" s="560"/>
       <c r="C4" s="563"/>
@@ -39372,7 +39383,7 @@
       <c r="H4" s="560"/>
       <c r="I4" s="569"/>
     </row>
-    <row r="5" spans="1:9" ht="120.75" thickBot="1">
+    <row r="5" spans="1:9" ht="30.75" thickBot="1">
       <c r="A5" s="557"/>
       <c r="B5" s="560"/>
       <c r="C5" s="563"/>
@@ -39387,7 +39398,7 @@
       <c r="H5" s="560"/>
       <c r="I5" s="569"/>
     </row>
-    <row r="6" spans="1:9" ht="75.75" thickBot="1">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="557"/>
       <c r="B6" s="560"/>
       <c r="C6" s="563"/>
@@ -39400,7 +39411,7 @@
       <c r="H6" s="560"/>
       <c r="I6" s="569"/>
     </row>
-    <row r="7" spans="1:9" ht="90.75" thickBot="1">
+    <row r="7" spans="1:9" ht="30.75" thickBot="1">
       <c r="A7" s="557"/>
       <c r="B7" s="560"/>
       <c r="C7" s="563"/>
@@ -39413,7 +39424,7 @@
       <c r="H7" s="560"/>
       <c r="I7" s="569"/>
     </row>
-    <row r="8" spans="1:9" ht="90.75" thickBot="1">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="557"/>
       <c r="B8" s="560"/>
       <c r="C8" s="563"/>
@@ -39426,7 +39437,7 @@
       <c r="H8" s="560"/>
       <c r="I8" s="569"/>
     </row>
-    <row r="9" spans="1:9" ht="150.75" thickBot="1">
+    <row r="9" spans="1:9" ht="30.75" thickBot="1">
       <c r="A9" s="558"/>
       <c r="B9" s="561"/>
       <c r="C9" s="564"/>
@@ -39439,7 +39450,7 @@
       <c r="H9" s="561"/>
       <c r="I9" s="570"/>
     </row>
-    <row r="10" spans="1:9" ht="135.75" thickBot="1">
+    <row r="10" spans="1:9" ht="45.75" thickBot="1">
       <c r="A10" s="556" t="s">
         <v>77</v>
       </c>
@@ -39468,7 +39479,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75.75" thickBot="1">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="557"/>
       <c r="B11" s="560"/>
       <c r="C11" s="560"/>
@@ -39481,7 +39492,7 @@
       <c r="H11" s="560"/>
       <c r="I11" s="569"/>
     </row>
-    <row r="12" spans="1:9" ht="120.75" thickBot="1">
+    <row r="12" spans="1:9" ht="30.75" thickBot="1">
       <c r="A12" s="557"/>
       <c r="B12" s="560"/>
       <c r="C12" s="560"/>
@@ -39496,7 +39507,7 @@
       <c r="H12" s="560"/>
       <c r="I12" s="569"/>
     </row>
-    <row r="13" spans="1:9" ht="120.75" thickBot="1">
+    <row r="13" spans="1:9" ht="30.75" thickBot="1">
       <c r="A13" s="557"/>
       <c r="B13" s="560"/>
       <c r="C13" s="560"/>
@@ -39511,7 +39522,7 @@
       <c r="H13" s="560"/>
       <c r="I13" s="569"/>
     </row>
-    <row r="14" spans="1:9" ht="75.75" thickBot="1">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
       <c r="A14" s="557"/>
       <c r="B14" s="560"/>
       <c r="C14" s="560"/>
@@ -39524,7 +39535,7 @@
       <c r="H14" s="560"/>
       <c r="I14" s="569"/>
     </row>
-    <row r="15" spans="1:9" ht="90.75" thickBot="1">
+    <row r="15" spans="1:9" ht="30.75" thickBot="1">
       <c r="A15" s="557"/>
       <c r="B15" s="560"/>
       <c r="C15" s="560"/>
@@ -39537,7 +39548,7 @@
       <c r="H15" s="560"/>
       <c r="I15" s="569"/>
     </row>
-    <row r="16" spans="1:9" ht="90.75" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="557"/>
       <c r="B16" s="560"/>
       <c r="C16" s="560"/>
@@ -39550,7 +39561,7 @@
       <c r="H16" s="560"/>
       <c r="I16" s="569"/>
     </row>
-    <row r="17" spans="1:9" ht="195.75" thickBot="1">
+    <row r="17" spans="1:9" ht="45.75" thickBot="1">
       <c r="A17" s="557"/>
       <c r="B17" s="560"/>
       <c r="C17" s="560"/>
@@ -39565,7 +39576,7 @@
       <c r="H17" s="560"/>
       <c r="I17" s="569"/>
     </row>
-    <row r="18" spans="1:9" ht="150.75" thickBot="1">
+    <row r="18" spans="1:9" ht="30.75" thickBot="1">
       <c r="A18" s="557"/>
       <c r="B18" s="560"/>
       <c r="C18" s="560"/>
@@ -39578,7 +39589,7 @@
       <c r="H18" s="560"/>
       <c r="I18" s="569"/>
     </row>
-    <row r="19" spans="1:9" ht="120.75" thickBot="1">
+    <row r="19" spans="1:9" ht="30.75" thickBot="1">
       <c r="A19" s="557"/>
       <c r="B19" s="560"/>
       <c r="C19" s="560"/>
@@ -39591,7 +39602,7 @@
       <c r="H19" s="560"/>
       <c r="I19" s="569"/>
     </row>
-    <row r="20" spans="1:9" ht="150.75" thickBot="1">
+    <row r="20" spans="1:9" ht="30.75" thickBot="1">
       <c r="A20" s="558"/>
       <c r="B20" s="561"/>
       <c r="C20" s="561"/>
@@ -39604,7 +39615,7 @@
       <c r="H20" s="561"/>
       <c r="I20" s="570"/>
     </row>
-    <row r="21" spans="1:9" ht="180.75" thickBot="1">
+    <row r="21" spans="1:9" ht="45.75" thickBot="1">
       <c r="A21" s="556" t="s">
         <v>77</v>
       </c>
@@ -39633,7 +39644,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75.75" thickBot="1">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="557"/>
       <c r="B22" s="560"/>
       <c r="C22" s="563"/>
@@ -39646,7 +39657,7 @@
       <c r="H22" s="563"/>
       <c r="I22" s="569"/>
     </row>
-    <row r="23" spans="1:9" ht="120.75" thickBot="1">
+    <row r="23" spans="1:9" ht="30.75" thickBot="1">
       <c r="A23" s="557"/>
       <c r="B23" s="560"/>
       <c r="C23" s="563"/>
@@ -39661,7 +39672,7 @@
       <c r="H23" s="563"/>
       <c r="I23" s="569"/>
     </row>
-    <row r="24" spans="1:9" ht="120.75" thickBot="1">
+    <row r="24" spans="1:9" ht="30.75" thickBot="1">
       <c r="A24" s="557"/>
       <c r="B24" s="560"/>
       <c r="C24" s="563"/>
@@ -39676,7 +39687,7 @@
       <c r="H24" s="563"/>
       <c r="I24" s="569"/>
     </row>
-    <row r="25" spans="1:9" ht="75.75" thickBot="1">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="557"/>
       <c r="B25" s="560"/>
       <c r="C25" s="563"/>
@@ -39689,7 +39700,7 @@
       <c r="H25" s="563"/>
       <c r="I25" s="569"/>
     </row>
-    <row r="26" spans="1:9" ht="90.75" thickBot="1">
+    <row r="26" spans="1:9" ht="30.75" thickBot="1">
       <c r="A26" s="557"/>
       <c r="B26" s="560"/>
       <c r="C26" s="563"/>
@@ -39702,7 +39713,7 @@
       <c r="H26" s="563"/>
       <c r="I26" s="569"/>
     </row>
-    <row r="27" spans="1:9" ht="90.75" thickBot="1">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="557"/>
       <c r="B27" s="560"/>
       <c r="C27" s="563"/>
@@ -39715,7 +39726,7 @@
       <c r="H27" s="563"/>
       <c r="I27" s="569"/>
     </row>
-    <row r="28" spans="1:9" ht="195.75" thickBot="1">
+    <row r="28" spans="1:9" ht="45.75" thickBot="1">
       <c r="A28" s="557"/>
       <c r="B28" s="560"/>
       <c r="C28" s="563"/>
@@ -39730,7 +39741,7 @@
       <c r="H28" s="563"/>
       <c r="I28" s="569"/>
     </row>
-    <row r="29" spans="1:9" ht="150.75" thickBot="1">
+    <row r="29" spans="1:9" ht="30.75" thickBot="1">
       <c r="A29" s="557"/>
       <c r="B29" s="560"/>
       <c r="C29" s="563"/>
@@ -39743,7 +39754,7 @@
       <c r="H29" s="563"/>
       <c r="I29" s="569"/>
     </row>
-    <row r="30" spans="1:9" ht="120.75" thickBot="1">
+    <row r="30" spans="1:9" ht="30.75" thickBot="1">
       <c r="A30" s="557"/>
       <c r="B30" s="560"/>
       <c r="C30" s="563"/>
@@ -39756,7 +39767,7 @@
       <c r="H30" s="563"/>
       <c r="I30" s="569"/>
     </row>
-    <row r="31" spans="1:9" ht="75.75" thickBot="1">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="557"/>
       <c r="B31" s="560"/>
       <c r="C31" s="563"/>
@@ -39771,7 +39782,7 @@
       <c r="H31" s="563"/>
       <c r="I31" s="569"/>
     </row>
-    <row r="32" spans="1:9" ht="135.75" thickBot="1">
+    <row r="32" spans="1:9" ht="30.75" thickBot="1">
       <c r="A32" s="558"/>
       <c r="B32" s="561"/>
       <c r="C32" s="564"/>
@@ -39784,7 +39795,7 @@
       <c r="H32" s="564"/>
       <c r="I32" s="570"/>
     </row>
-    <row r="33" spans="1:9" ht="180.75" thickBot="1">
+    <row r="33" spans="1:9" ht="45.75" thickBot="1">
       <c r="A33" s="556" t="s">
         <v>77</v>
       </c>
@@ -39813,7 +39824,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="75.75" thickBot="1">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
       <c r="A34" s="557"/>
       <c r="B34" s="560"/>
       <c r="C34" s="563"/>
@@ -39826,7 +39837,7 @@
       <c r="H34" s="566"/>
       <c r="I34" s="572"/>
     </row>
-    <row r="35" spans="1:9" ht="120.75" thickBot="1">
+    <row r="35" spans="1:9" ht="30.75" thickBot="1">
       <c r="A35" s="557"/>
       <c r="B35" s="560"/>
       <c r="C35" s="563"/>
@@ -39841,7 +39852,7 @@
       <c r="H35" s="566"/>
       <c r="I35" s="572"/>
     </row>
-    <row r="36" spans="1:9" ht="120.75" thickBot="1">
+    <row r="36" spans="1:9" ht="30.75" thickBot="1">
       <c r="A36" s="557"/>
       <c r="B36" s="560"/>
       <c r="C36" s="563"/>
@@ -39856,7 +39867,7 @@
       <c r="H36" s="566"/>
       <c r="I36" s="572"/>
     </row>
-    <row r="37" spans="1:9" ht="75.75" thickBot="1">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="A37" s="557"/>
       <c r="B37" s="560"/>
       <c r="C37" s="563"/>
@@ -39869,7 +39880,7 @@
       <c r="H37" s="566"/>
       <c r="I37" s="572"/>
     </row>
-    <row r="38" spans="1:9" ht="90.75" thickBot="1">
+    <row r="38" spans="1:9" ht="30.75" thickBot="1">
       <c r="A38" s="557"/>
       <c r="B38" s="560"/>
       <c r="C38" s="563"/>
@@ -39882,7 +39893,7 @@
       <c r="H38" s="566"/>
       <c r="I38" s="572"/>
     </row>
-    <row r="39" spans="1:9" ht="90.75" thickBot="1">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1">
       <c r="A39" s="557"/>
       <c r="B39" s="560"/>
       <c r="C39" s="563"/>
@@ -39895,7 +39906,7 @@
       <c r="H39" s="566"/>
       <c r="I39" s="572"/>
     </row>
-    <row r="40" spans="1:9" ht="195.75" thickBot="1">
+    <row r="40" spans="1:9" ht="45.75" thickBot="1">
       <c r="A40" s="557"/>
       <c r="B40" s="560"/>
       <c r="C40" s="563"/>
@@ -39910,7 +39921,7 @@
       <c r="H40" s="566"/>
       <c r="I40" s="572"/>
     </row>
-    <row r="41" spans="1:9" ht="150.75" thickBot="1">
+    <row r="41" spans="1:9" ht="30.75" thickBot="1">
       <c r="A41" s="557"/>
       <c r="B41" s="560"/>
       <c r="C41" s="563"/>
@@ -39923,7 +39934,7 @@
       <c r="H41" s="566"/>
       <c r="I41" s="572"/>
     </row>
-    <row r="42" spans="1:9" ht="120.75" thickBot="1">
+    <row r="42" spans="1:9" ht="30.75" thickBot="1">
       <c r="A42" s="557"/>
       <c r="B42" s="560"/>
       <c r="C42" s="563"/>
@@ -39936,7 +39947,7 @@
       <c r="H42" s="566"/>
       <c r="I42" s="572"/>
     </row>
-    <row r="43" spans="1:9" ht="120.75" thickBot="1">
+    <row r="43" spans="1:9" ht="30.75" thickBot="1">
       <c r="A43" s="557"/>
       <c r="B43" s="560"/>
       <c r="C43" s="563"/>
@@ -39949,7 +39960,7 @@
       <c r="H43" s="566"/>
       <c r="I43" s="572"/>
     </row>
-    <row r="44" spans="1:9" ht="75.75" thickBot="1">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1">
       <c r="A44" s="557"/>
       <c r="B44" s="560"/>
       <c r="C44" s="563"/>
@@ -39962,7 +39973,7 @@
       <c r="H44" s="566"/>
       <c r="I44" s="572"/>
     </row>
-    <row r="45" spans="1:9" ht="105.75" thickBot="1">
+    <row r="45" spans="1:9" ht="30.75" thickBot="1">
       <c r="A45" s="557"/>
       <c r="B45" s="560"/>
       <c r="C45" s="563"/>
@@ -39977,7 +39988,7 @@
       <c r="H45" s="566"/>
       <c r="I45" s="572"/>
     </row>
-    <row r="46" spans="1:9" ht="135.75" thickBot="1">
+    <row r="46" spans="1:9" ht="30.75" thickBot="1">
       <c r="A46" s="558"/>
       <c r="B46" s="561"/>
       <c r="C46" s="564"/>
@@ -39990,7 +40001,7 @@
       <c r="H46" s="567"/>
       <c r="I46" s="573"/>
     </row>
-    <row r="47" spans="1:9" ht="180.75" thickBot="1">
+    <row r="47" spans="1:9" ht="45.75" thickBot="1">
       <c r="A47" s="556" t="s">
         <v>77</v>
       </c>
@@ -40019,7 +40030,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75.75" thickBot="1">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1">
       <c r="A48" s="557"/>
       <c r="B48" s="560"/>
       <c r="C48" s="563"/>
@@ -40032,7 +40043,7 @@
       <c r="H48" s="563"/>
       <c r="I48" s="569"/>
     </row>
-    <row r="49" spans="1:9" ht="120.75" thickBot="1">
+    <row r="49" spans="1:9" ht="30.75" thickBot="1">
       <c r="A49" s="557"/>
       <c r="B49" s="560"/>
       <c r="C49" s="563"/>
@@ -40047,7 +40058,7 @@
       <c r="H49" s="563"/>
       <c r="I49" s="569"/>
     </row>
-    <row r="50" spans="1:9" ht="120.75" thickBot="1">
+    <row r="50" spans="1:9" ht="30.75" thickBot="1">
       <c r="A50" s="557"/>
       <c r="B50" s="560"/>
       <c r="C50" s="563"/>
@@ -40062,7 +40073,7 @@
       <c r="H50" s="563"/>
       <c r="I50" s="569"/>
     </row>
-    <row r="51" spans="1:9" ht="75.75" thickBot="1">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1">
       <c r="A51" s="557"/>
       <c r="B51" s="560"/>
       <c r="C51" s="563"/>
@@ -40075,7 +40086,7 @@
       <c r="H51" s="563"/>
       <c r="I51" s="569"/>
     </row>
-    <row r="52" spans="1:9" ht="90.75" thickBot="1">
+    <row r="52" spans="1:9" ht="30.75" thickBot="1">
       <c r="A52" s="557"/>
       <c r="B52" s="560"/>
       <c r="C52" s="563"/>
@@ -40088,7 +40099,7 @@
       <c r="H52" s="563"/>
       <c r="I52" s="569"/>
     </row>
-    <row r="53" spans="1:9" ht="90.75" thickBot="1">
+    <row r="53" spans="1:9" ht="15.75" thickBot="1">
       <c r="A53" s="557"/>
       <c r="B53" s="560"/>
       <c r="C53" s="563"/>
@@ -40101,7 +40112,7 @@
       <c r="H53" s="563"/>
       <c r="I53" s="569"/>
     </row>
-    <row r="54" spans="1:9" ht="195.75" thickBot="1">
+    <row r="54" spans="1:9" ht="45.75" thickBot="1">
       <c r="A54" s="557"/>
       <c r="B54" s="560"/>
       <c r="C54" s="563"/>
@@ -40116,7 +40127,7 @@
       <c r="H54" s="563"/>
       <c r="I54" s="569"/>
     </row>
-    <row r="55" spans="1:9" ht="150.75" thickBot="1">
+    <row r="55" spans="1:9" ht="30.75" thickBot="1">
       <c r="A55" s="557"/>
       <c r="B55" s="560"/>
       <c r="C55" s="563"/>
@@ -40129,7 +40140,7 @@
       <c r="H55" s="563"/>
       <c r="I55" s="569"/>
     </row>
-    <row r="56" spans="1:9" ht="120.75" thickBot="1">
+    <row r="56" spans="1:9" ht="30.75" thickBot="1">
       <c r="A56" s="557"/>
       <c r="B56" s="560"/>
       <c r="C56" s="563"/>
@@ -40142,7 +40153,7 @@
       <c r="H56" s="563"/>
       <c r="I56" s="569"/>
     </row>
-    <row r="57" spans="1:9" ht="120.75" thickBot="1">
+    <row r="57" spans="1:9" ht="30.75" thickBot="1">
       <c r="A57" s="557"/>
       <c r="B57" s="560"/>
       <c r="C57" s="563"/>
@@ -40155,7 +40166,7 @@
       <c r="H57" s="563"/>
       <c r="I57" s="569"/>
     </row>
-    <row r="58" spans="1:9" ht="105.75" thickBot="1">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1">
       <c r="A58" s="558"/>
       <c r="B58" s="561"/>
       <c r="C58" s="564"/>
@@ -40219,13 +40230,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="51.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="250" t="s">
         <v>263</v>
       </c>
@@ -40254,7 +40271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120.75" thickBot="1">
+    <row r="2" spans="1:9" ht="30.75" thickBot="1">
       <c r="A2" s="588" t="s">
         <v>78</v>
       </c>
@@ -40283,7 +40300,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="101.25" thickBot="1">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="580"/>
       <c r="B3" s="580"/>
       <c r="C3" s="580"/>
@@ -40298,7 +40315,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="87" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="580"/>
       <c r="B4" s="580"/>
       <c r="C4" s="580"/>
@@ -40313,7 +40330,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="101.25" thickBot="1">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="581"/>
       <c r="B5" s="581"/>
       <c r="C5" s="581"/>
@@ -40328,7 +40345,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90.75" thickBot="1">
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="582" t="s">
         <v>78</v>
       </c>
@@ -40357,7 +40374,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72.75" thickBot="1">
+    <row r="7" spans="1:9" ht="42.75" customHeight="1" thickBot="1">
       <c r="A7" s="584"/>
       <c r="B7" s="584"/>
       <c r="C7" s="584"/>
@@ -40372,7 +40389,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="201" thickBot="1">
+    <row r="8" spans="1:9" ht="30" thickBot="1">
       <c r="A8" s="579" t="s">
         <v>78</v>
       </c>
@@ -40401,7 +40418,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="172.5" thickBot="1">
+    <row r="9" spans="1:9" ht="30" thickBot="1">
       <c r="A9" s="580"/>
       <c r="B9" s="580"/>
       <c r="C9" s="580"/>
@@ -40416,7 +40433,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="129.75" thickBot="1">
+    <row r="10" spans="1:9" ht="30" thickBot="1">
       <c r="A10" s="580"/>
       <c r="B10" s="580"/>
       <c r="C10" s="580"/>
@@ -40431,7 +40448,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="144" thickBot="1">
+    <row r="11" spans="1:9" ht="30" thickBot="1">
       <c r="A11" s="580"/>
       <c r="B11" s="580"/>
       <c r="C11" s="580"/>
@@ -40446,7 +40463,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="115.5" thickBot="1">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="580"/>
       <c r="B12" s="580"/>
       <c r="C12" s="580"/>
@@ -40461,7 +40478,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="115.5" thickBot="1">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" s="580"/>
       <c r="B13" s="580"/>
       <c r="C13" s="580"/>
@@ -40476,7 +40493,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72.75" thickBot="1">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
       <c r="A14" s="580"/>
       <c r="B14" s="580"/>
       <c r="C14" s="580"/>
@@ -40491,7 +40508,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="115.5" thickBot="1">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
       <c r="A15" s="581"/>
       <c r="B15" s="581"/>
       <c r="C15" s="581"/>
@@ -40506,7 +40523,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="115.5" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="582" t="s">
         <v>78</v>
       </c>
@@ -40535,7 +40552,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="144" thickBot="1">
+    <row r="17" spans="1:9" ht="30" thickBot="1">
       <c r="A17" s="583"/>
       <c r="B17" s="583"/>
       <c r="C17" s="583"/>
@@ -40550,7 +40567,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="144" thickBot="1">
+    <row r="18" spans="1:9" ht="30" thickBot="1">
       <c r="A18" s="583"/>
       <c r="B18" s="583"/>
       <c r="C18" s="583"/>
@@ -40565,7 +40582,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="144" thickBot="1">
+    <row r="19" spans="1:9" ht="30" thickBot="1">
       <c r="A19" s="583"/>
       <c r="B19" s="583"/>
       <c r="C19" s="583"/>
@@ -40580,7 +40597,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="144" thickBot="1">
+    <row r="20" spans="1:9" ht="30" thickBot="1">
       <c r="A20" s="583"/>
       <c r="B20" s="583"/>
       <c r="C20" s="583"/>
@@ -40595,7 +40612,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="144" thickBot="1">
+    <row r="21" spans="1:9" ht="30" thickBot="1">
       <c r="A21" s="583"/>
       <c r="B21" s="583"/>
       <c r="C21" s="583"/>
@@ -40610,7 +40627,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="144" thickBot="1">
+    <row r="22" spans="1:9" ht="30" thickBot="1">
       <c r="A22" s="583"/>
       <c r="B22" s="583"/>
       <c r="C22" s="583"/>
@@ -40625,7 +40642,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="144" thickBot="1">
+    <row r="23" spans="1:9" ht="30" thickBot="1">
       <c r="A23" s="583"/>
       <c r="B23" s="583"/>
       <c r="C23" s="583"/>
@@ -40640,7 +40657,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="158.25" thickBot="1">
+    <row r="24" spans="1:9" ht="30" thickBot="1">
       <c r="A24" s="583"/>
       <c r="B24" s="583"/>
       <c r="C24" s="583"/>
@@ -40655,7 +40672,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="144" thickBot="1">
+    <row r="25" spans="1:9" ht="30" thickBot="1">
       <c r="A25" s="584"/>
       <c r="B25" s="584"/>
       <c r="C25" s="584"/>
@@ -40670,7 +40687,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="90.75" thickBot="1">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
       <c r="A26" s="579" t="s">
         <v>78</v>
       </c>
@@ -40699,7 +40716,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="101.25" thickBot="1">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="580"/>
       <c r="B27" s="580"/>
       <c r="C27" s="580"/>
@@ -40714,7 +40731,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="172.5" thickBot="1">
+    <row r="28" spans="1:9" ht="44.25" thickBot="1">
       <c r="A28" s="581"/>
       <c r="B28" s="581"/>
       <c r="C28" s="581"/>
@@ -40729,7 +40746,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="150.75" thickBot="1">
+    <row r="29" spans="1:9" ht="45.75" thickBot="1">
       <c r="A29" s="582" t="s">
         <v>78</v>
       </c>
@@ -40758,7 +40775,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="101.25" thickBot="1">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="583"/>
       <c r="B30" s="583"/>
       <c r="C30" s="583"/>
@@ -40773,7 +40790,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="129.75" thickBot="1">
+    <row r="31" spans="1:9" ht="30" thickBot="1">
       <c r="A31" s="583"/>
       <c r="B31" s="583"/>
       <c r="C31" s="583"/>
@@ -40790,7 +40807,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="129.75" thickBot="1">
+    <row r="32" spans="1:9" ht="30" thickBot="1">
       <c r="A32" s="583"/>
       <c r="B32" s="583"/>
       <c r="C32" s="583"/>
@@ -40807,7 +40824,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="87" thickBot="1">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="583"/>
       <c r="B33" s="583"/>
       <c r="C33" s="583"/>
@@ -40824,7 +40841,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="144" thickBot="1">
+    <row r="34" spans="1:9" ht="30" thickBot="1">
       <c r="A34" s="583"/>
       <c r="B34" s="583"/>
       <c r="C34" s="583"/>
@@ -40841,7 +40858,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="172.5" thickBot="1">
+    <row r="35" spans="1:9" ht="30" thickBot="1">
       <c r="A35" s="583"/>
       <c r="B35" s="583"/>
       <c r="C35" s="583"/>
@@ -40858,7 +40875,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="215.25" thickBot="1">
+    <row r="36" spans="1:9" ht="30" thickBot="1">
       <c r="A36" s="583"/>
       <c r="B36" s="583"/>
       <c r="C36" s="583"/>
@@ -40875,7 +40892,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="158.25" thickBot="1">
+    <row r="37" spans="1:9" ht="30" thickBot="1">
       <c r="A37" s="583"/>
       <c r="B37" s="583"/>
       <c r="C37" s="583"/>
@@ -40892,7 +40909,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="144" thickBot="1">
+    <row r="38" spans="1:9" ht="30" thickBot="1">
       <c r="A38" s="583"/>
       <c r="B38" s="583"/>
       <c r="C38" s="583"/>
@@ -40909,7 +40926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="158.25" thickBot="1">
+    <row r="39" spans="1:9" ht="30" thickBot="1">
       <c r="A39" s="583"/>
       <c r="B39" s="583"/>
       <c r="C39" s="583"/>
@@ -40926,7 +40943,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="144" thickBot="1">
+    <row r="40" spans="1:9" ht="30" thickBot="1">
       <c r="A40" s="583"/>
       <c r="B40" s="583"/>
       <c r="C40" s="583"/>
@@ -40943,7 +40960,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="172.5" thickBot="1">
+    <row r="41" spans="1:9" ht="30" thickBot="1">
       <c r="A41" s="583"/>
       <c r="B41" s="583"/>
       <c r="C41" s="583"/>
@@ -40960,7 +40977,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="158.25" thickBot="1">
+    <row r="42" spans="1:9" ht="30" thickBot="1">
       <c r="A42" s="583"/>
       <c r="B42" s="583"/>
       <c r="C42" s="583"/>
@@ -40977,7 +40994,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="144" thickBot="1">
+    <row r="43" spans="1:9" ht="30" thickBot="1">
       <c r="A43" s="583"/>
       <c r="B43" s="583"/>
       <c r="C43" s="583"/>
@@ -41009,7 +41026,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="129.75" thickBot="1">
+    <row r="45" spans="1:9" ht="30" thickBot="1">
       <c r="A45" s="579" t="s">
         <v>78</v>
       </c>
@@ -41038,7 +41055,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="115.5" thickBot="1">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
       <c r="A46" s="580"/>
       <c r="B46" s="580"/>
       <c r="C46" s="580"/>
@@ -41053,7 +41070,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="129.75" thickBot="1">
+    <row r="47" spans="1:9" ht="30" thickBot="1">
       <c r="A47" s="580"/>
       <c r="B47" s="580"/>
       <c r="C47" s="580"/>
@@ -41068,7 +41085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="186.75" thickBot="1">
+    <row r="48" spans="1:9" ht="30" thickBot="1">
       <c r="A48" s="580"/>
       <c r="B48" s="580"/>
       <c r="C48" s="580"/>
@@ -41083,7 +41100,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="186.75" thickBot="1">
+    <row r="49" spans="1:9" ht="30" thickBot="1">
       <c r="A49" s="580"/>
       <c r="B49" s="580"/>
       <c r="C49" s="580"/>
@@ -41100,7 +41117,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="186.75" thickBot="1">
+    <row r="50" spans="1:9" ht="30" thickBot="1">
       <c r="A50" s="580"/>
       <c r="B50" s="580"/>
       <c r="C50" s="580"/>
@@ -41117,7 +41134,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="172.5" thickBot="1">
+    <row r="51" spans="1:9" ht="30" thickBot="1">
       <c r="A51" s="580"/>
       <c r="B51" s="580"/>
       <c r="C51" s="580"/>
@@ -41134,7 +41151,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="144" thickBot="1">
+    <row r="52" spans="1:9" ht="30" thickBot="1">
       <c r="A52" s="580"/>
       <c r="B52" s="580"/>
       <c r="C52" s="580"/>
@@ -41151,7 +41168,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="144" thickBot="1">
+    <row r="53" spans="1:9" ht="30" thickBot="1">
       <c r="A53" s="580"/>
       <c r="B53" s="580"/>
       <c r="C53" s="580"/>
@@ -41168,7 +41185,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="87" thickBot="1">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1">
       <c r="A54" s="580"/>
       <c r="B54" s="580"/>
       <c r="C54" s="580"/>
@@ -41185,7 +41202,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="87" thickBot="1">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1">
       <c r="A55" s="580"/>
       <c r="B55" s="580"/>
       <c r="C55" s="580"/>
@@ -41202,7 +41219,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="172.5" thickBot="1">
+    <row r="56" spans="1:9" ht="30" thickBot="1">
       <c r="A56" s="580"/>
       <c r="B56" s="580"/>
       <c r="C56" s="580"/>
@@ -41219,7 +41236,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="172.5" thickBot="1">
+    <row r="57" spans="1:9" ht="30" thickBot="1">
       <c r="A57" s="580"/>
       <c r="B57" s="580"/>
       <c r="C57" s="580"/>
@@ -41236,7 +41253,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="186.75" thickBot="1">
+    <row r="58" spans="1:9" ht="30" thickBot="1">
       <c r="A58" s="580"/>
       <c r="B58" s="580"/>
       <c r="C58" s="580"/>
@@ -41253,7 +41270,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="172.5" thickBot="1">
+    <row r="59" spans="1:9" ht="30" thickBot="1">
       <c r="A59" s="580"/>
       <c r="B59" s="580"/>
       <c r="C59" s="580"/>
@@ -41270,7 +41287,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="186.75" thickBot="1">
+    <row r="60" spans="1:9" ht="30" thickBot="1">
       <c r="A60" s="580"/>
       <c r="B60" s="580"/>
       <c r="C60" s="580"/>
@@ -41287,7 +41304,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="186.75" thickBot="1">
+    <row r="61" spans="1:9" ht="30" thickBot="1">
       <c r="A61" s="580"/>
       <c r="B61" s="580"/>
       <c r="C61" s="580"/>
@@ -41304,7 +41321,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="144" thickBot="1">
+    <row r="62" spans="1:9" ht="30" thickBot="1">
       <c r="A62" s="580"/>
       <c r="B62" s="580"/>
       <c r="C62" s="580"/>
@@ -41321,7 +41338,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="101.25" thickBot="1">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1">
       <c r="A63" s="581"/>
       <c r="B63" s="581"/>
       <c r="C63" s="581"/>
@@ -41336,7 +41353,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="129.75" thickBot="1">
+    <row r="64" spans="1:9" ht="30" thickBot="1">
       <c r="A64" s="582" t="s">
         <v>78</v>
       </c>
@@ -41365,7 +41382,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="115.5" thickBot="1">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1">
       <c r="A65" s="583"/>
       <c r="B65" s="583"/>
       <c r="C65" s="583"/>
@@ -41380,7 +41397,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="129.75" thickBot="1">
+    <row r="66" spans="1:9" ht="30" thickBot="1">
       <c r="A66" s="583"/>
       <c r="B66" s="583"/>
       <c r="C66" s="583"/>
@@ -41395,7 +41412,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="186.75" thickBot="1">
+    <row r="67" spans="1:9" ht="30" thickBot="1">
       <c r="A67" s="583"/>
       <c r="B67" s="583"/>
       <c r="C67" s="583"/>
@@ -41410,7 +41427,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="186.75" thickBot="1">
+    <row r="68" spans="1:9" ht="30" thickBot="1">
       <c r="A68" s="583"/>
       <c r="B68" s="583"/>
       <c r="C68" s="583"/>
@@ -41427,7 +41444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="186.75" thickBot="1">
+    <row r="69" spans="1:9" ht="30" thickBot="1">
       <c r="A69" s="583"/>
       <c r="B69" s="583"/>
       <c r="C69" s="583"/>
@@ -41444,7 +41461,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="172.5" thickBot="1">
+    <row r="70" spans="1:9" ht="30" thickBot="1">
       <c r="A70" s="583"/>
       <c r="B70" s="583"/>
       <c r="C70" s="583"/>
@@ -41461,7 +41478,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="144" thickBot="1">
+    <row r="71" spans="1:9" ht="30" thickBot="1">
       <c r="A71" s="583"/>
       <c r="B71" s="583"/>
       <c r="C71" s="583"/>
@@ -41478,7 +41495,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="144" thickBot="1">
+    <row r="72" spans="1:9" ht="30" thickBot="1">
       <c r="A72" s="583"/>
       <c r="B72" s="583"/>
       <c r="C72" s="583"/>
@@ -41495,7 +41512,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="87" thickBot="1">
+    <row r="73" spans="1:9" ht="15.75" thickBot="1">
       <c r="A73" s="583"/>
       <c r="B73" s="583"/>
       <c r="C73" s="583"/>
@@ -41512,7 +41529,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="87" thickBot="1">
+    <row r="74" spans="1:9" ht="15.75" thickBot="1">
       <c r="A74" s="583"/>
       <c r="B74" s="583"/>
       <c r="C74" s="583"/>
@@ -41529,7 +41546,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="172.5" thickBot="1">
+    <row r="75" spans="1:9" ht="30" thickBot="1">
       <c r="A75" s="583"/>
       <c r="B75" s="583"/>
       <c r="C75" s="583"/>
@@ -41546,7 +41563,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="172.5" thickBot="1">
+    <row r="76" spans="1:9" ht="30" thickBot="1">
       <c r="A76" s="583"/>
       <c r="B76" s="583"/>
       <c r="C76" s="583"/>
@@ -41563,7 +41580,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="186.75" thickBot="1">
+    <row r="77" spans="1:9" ht="30" thickBot="1">
       <c r="A77" s="583"/>
       <c r="B77" s="583"/>
       <c r="C77" s="583"/>
@@ -41580,7 +41597,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="172.5" thickBot="1">
+    <row r="78" spans="1:9" ht="30" thickBot="1">
       <c r="A78" s="583"/>
       <c r="B78" s="583"/>
       <c r="C78" s="583"/>
@@ -41597,7 +41614,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="186.75" thickBot="1">
+    <row r="79" spans="1:9" ht="30" thickBot="1">
       <c r="A79" s="583"/>
       <c r="B79" s="583"/>
       <c r="C79" s="583"/>
@@ -41614,7 +41631,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="186.75" thickBot="1">
+    <row r="80" spans="1:9" ht="30" thickBot="1">
       <c r="A80" s="583"/>
       <c r="B80" s="583"/>
       <c r="C80" s="583"/>
@@ -41631,7 +41648,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="144" thickBot="1">
+    <row r="81" spans="1:9" ht="30" thickBot="1">
       <c r="A81" s="583"/>
       <c r="B81" s="583"/>
       <c r="C81" s="583"/>
@@ -41648,7 +41665,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="101.25" thickBot="1">
+    <row r="82" spans="1:9" ht="15.75" thickBot="1">
       <c r="A82" s="583"/>
       <c r="B82" s="583"/>
       <c r="C82" s="583"/>
@@ -41663,7 +41680,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="229.5" thickBot="1">
+    <row r="83" spans="1:9" ht="44.25" thickBot="1">
       <c r="A83" s="583"/>
       <c r="B83" s="583"/>
       <c r="C83" s="583"/>
@@ -41678,7 +41695,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="158.25" thickBot="1">
+    <row r="84" spans="1:9" ht="30" thickBot="1">
       <c r="A84" s="584"/>
       <c r="B84" s="584"/>
       <c r="C84" s="584"/>
@@ -41693,7 +41710,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="129.75" thickBot="1">
+    <row r="85" spans="1:9" ht="30" thickBot="1">
       <c r="A85" s="579" t="s">
         <v>78</v>
       </c>
@@ -41722,7 +41739,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="115.5" thickBot="1">
+    <row r="86" spans="1:9" ht="15.75" thickBot="1">
       <c r="A86" s="580"/>
       <c r="B86" s="580"/>
       <c r="C86" s="580"/>
@@ -41737,7 +41754,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="129.75" thickBot="1">
+    <row r="87" spans="1:9" ht="30" thickBot="1">
       <c r="A87" s="580"/>
       <c r="B87" s="580"/>
       <c r="C87" s="580"/>
@@ -41752,7 +41769,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="186.75" thickBot="1">
+    <row r="88" spans="1:9" ht="30" thickBot="1">
       <c r="A88" s="580"/>
       <c r="B88" s="580"/>
       <c r="C88" s="580"/>
@@ -41767,7 +41784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="186.75" thickBot="1">
+    <row r="89" spans="1:9" ht="30" thickBot="1">
       <c r="A89" s="580"/>
       <c r="B89" s="580"/>
       <c r="C89" s="580"/>
@@ -41784,7 +41801,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="186.75" thickBot="1">
+    <row r="90" spans="1:9" ht="30" thickBot="1">
       <c r="A90" s="580"/>
       <c r="B90" s="580"/>
       <c r="C90" s="580"/>
@@ -41801,7 +41818,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="172.5" thickBot="1">
+    <row r="91" spans="1:9" ht="30" thickBot="1">
       <c r="A91" s="580"/>
       <c r="B91" s="580"/>
       <c r="C91" s="580"/>
@@ -41818,7 +41835,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="144" thickBot="1">
+    <row r="92" spans="1:9" ht="30" thickBot="1">
       <c r="A92" s="580"/>
       <c r="B92" s="580"/>
       <c r="C92" s="580"/>
@@ -41835,7 +41852,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="144" thickBot="1">
+    <row r="93" spans="1:9" ht="30" thickBot="1">
       <c r="A93" s="580"/>
       <c r="B93" s="580"/>
       <c r="C93" s="580"/>
@@ -41852,7 +41869,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="87" thickBot="1">
+    <row r="94" spans="1:9" ht="15.75" thickBot="1">
       <c r="A94" s="580"/>
       <c r="B94" s="580"/>
       <c r="C94" s="580"/>
@@ -41869,7 +41886,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="87" thickBot="1">
+    <row r="95" spans="1:9" ht="15.75" thickBot="1">
       <c r="A95" s="580"/>
       <c r="B95" s="580"/>
       <c r="C95" s="580"/>
@@ -41886,7 +41903,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="172.5" thickBot="1">
+    <row r="96" spans="1:9" ht="30" thickBot="1">
       <c r="A96" s="580"/>
       <c r="B96" s="580"/>
       <c r="C96" s="580"/>
@@ -41903,7 +41920,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="172.5" thickBot="1">
+    <row r="97" spans="1:9" ht="30" thickBot="1">
       <c r="A97" s="580"/>
       <c r="B97" s="580"/>
       <c r="C97" s="580"/>
@@ -41920,7 +41937,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="186.75" thickBot="1">
+    <row r="98" spans="1:9" ht="30" thickBot="1">
       <c r="A98" s="580"/>
       <c r="B98" s="580"/>
       <c r="C98" s="580"/>
@@ -41937,7 +41954,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="172.5" thickBot="1">
+    <row r="99" spans="1:9" ht="30" thickBot="1">
       <c r="A99" s="580"/>
       <c r="B99" s="580"/>
       <c r="C99" s="580"/>
@@ -41954,7 +41971,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="186.75" thickBot="1">
+    <row r="100" spans="1:9" ht="30" thickBot="1">
       <c r="A100" s="580"/>
       <c r="B100" s="580"/>
       <c r="C100" s="580"/>
@@ -41971,7 +41988,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="186.75" thickBot="1">
+    <row r="101" spans="1:9" ht="30" thickBot="1">
       <c r="A101" s="580"/>
       <c r="B101" s="580"/>
       <c r="C101" s="580"/>
@@ -41988,7 +42005,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="144" thickBot="1">
+    <row r="102" spans="1:9" ht="30" thickBot="1">
       <c r="A102" s="580"/>
       <c r="B102" s="580"/>
       <c r="C102" s="580"/>
@@ -42005,7 +42022,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="101.25" thickBot="1">
+    <row r="103" spans="1:9" ht="15.75" thickBot="1">
       <c r="A103" s="580"/>
       <c r="B103" s="580"/>
       <c r="C103" s="580"/>
@@ -42020,7 +42037,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="229.5" thickBot="1">
+    <row r="104" spans="1:9" ht="44.25" thickBot="1">
       <c r="A104" s="580"/>
       <c r="B104" s="580"/>
       <c r="C104" s="580"/>
@@ -42369,7 +42386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
